--- a/services/limbless-app/static/resources/templates/library_prep/template.xlsx
+++ b/services/limbless-app/static/resources/templates/library_prep/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agynter/dev/limbless-app-dev/services/limbless-app/static/resources/templates/library_prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3770703E-010C-F941-9461-19C2B84D2484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB2C2D-AA9D-5244-A601-2057CAB07903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51800" yWindow="3400" windowWidth="36980" windowHeight="22900" xr2:uid="{BA8AB787-1E1F-024C-A296-E8A36875047B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>R0</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>requestor</t>
+  </si>
+  <si>
+    <t>lib_conc_ng_ul</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,18 +487,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CEC1DF-8ED0-B840-A178-84D3EE75C042}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +539,11 @@
       <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -551,8 +559,9 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -568,8 +577,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -585,8 +595,9 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -602,8 +613,9 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -619,8 +631,9 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -636,8 +649,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -653,8 +667,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -670,8 +685,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -687,8 +703,9 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -704,8 +721,9 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -721,8 +739,9 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -738,8 +757,9 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -755,8 +775,9 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -772,8 +793,9 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -789,8 +811,9 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -806,8 +829,9 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -823,8 +847,9 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -840,8 +865,9 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -857,8 +883,9 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -874,8 +901,9 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -891,8 +919,9 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -908,8 +937,9 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -925,8 +955,9 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -942,8 +973,9 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -959,8 +991,9 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -976,8 +1009,9 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -993,8 +1027,9 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1010,8 +1045,9 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1027,8 +1063,9 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1044,8 +1081,9 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1061,8 +1099,9 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1078,8 +1117,9 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1095,8 +1135,9 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1112,8 +1153,9 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1129,8 +1171,9 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1146,8 +1189,9 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1163,8 +1207,9 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1180,8 +1225,9 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1197,8 +1243,9 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1214,8 +1261,9 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1231,8 +1279,9 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1248,8 +1297,9 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1265,8 +1315,9 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1282,8 +1333,9 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1299,8 +1351,9 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1316,8 +1369,9 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1333,8 +1387,9 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1350,8 +1405,9 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1367,8 +1423,9 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1384,8 +1441,9 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1401,8 +1459,9 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1418,8 +1477,9 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1435,8 +1495,9 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1452,8 +1513,9 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1469,8 +1531,9 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1486,8 +1549,9 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1503,8 +1567,9 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1520,8 +1585,9 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1537,8 +1603,9 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1554,8 +1621,9 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1571,8 +1639,9 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1588,8 +1657,9 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1605,8 +1675,9 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1622,8 +1693,9 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1639,8 +1711,9 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1656,8 +1729,9 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1673,8 +1747,9 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1690,8 +1765,9 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1707,8 +1783,9 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1724,8 +1801,9 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1741,8 +1819,9 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1758,8 +1837,9 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1775,8 +1855,9 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1792,8 +1873,9 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -1809,8 +1891,9 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -1826,8 +1909,9 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -1843,8 +1927,9 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -1877,8 +1963,9 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -1894,8 +1981,9 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -1911,8 +1999,9 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -1928,8 +2017,9 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -1945,8 +2035,9 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -1962,8 +2053,9 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -1979,8 +2071,9 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -1996,8 +2089,9 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2013,8 +2107,9 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2030,8 +2125,9 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2047,8 +2143,9 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2064,8 +2161,9 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2081,8 +2179,9 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2098,8 +2197,9 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2115,8 +2215,9 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2132,8 +2233,9 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -2149,8 +2251,9 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -2166,6 +2269,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
+      <c r="N97" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
